--- a/biology/Médecine/Riccardo_Di_Segni/Riccardo_Di_Segni.xlsx
+++ b/biology/Médecine/Riccardo_Di_Segni/Riccardo_Di_Segni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Riccardo Di Segni[1] (Rome, 13 novembre 1949) est un rabbin italien né d'un père juif romain et d'une mère ashkénaze originaire d'Europe orientale. Par sa mère, Riccardo Di Segni descend de trois générations de rabbins.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Riccardo Di Segni (Rome, 13 novembre 1949) est un rabbin italien né d'un père juif romain et d'une mère ashkénaze originaire d'Europe orientale. Par sa mère, Riccardo Di Segni descend de trois générations de rabbins.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Médecin de profession, spécialiste en radiologie, Riccardo Di Segni exerce notamment comme directeur du département de radiologie de l'hôpital San Giovanni de Rome jusqu'à 2014[2].
-Il obtient son diplôme de rabbin en 1973 après des études au Collegio Rabbinico Italiano di Roma, l'école rabbinique de Rome dont il est le directeur depuis 1999[3]. En 2001, il est élu grand-rabbin de Rome[4], entrant en fonction en 2001, succédant à Elio Toaff.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Médecin de profession, spécialiste en radiologie, Riccardo Di Segni exerce notamment comme directeur du département de radiologie de l'hôpital San Giovanni de Rome jusqu'à 2014.
+Il obtient son diplôme de rabbin en 1973 après des études au Collegio Rabbinico Italiano di Roma, l'école rabbinique de Rome dont il est le directeur depuis 1999. En 2001, il est élu grand-rabbin de Rome, entrant en fonction en 2001, succédant à Elio Toaff.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1976 : Guida alle regole alimentari ebraiche.
 1981 : Le unghie di Adamo.
